--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Desktop</t>
   </si>
   <si>
-    <t>Homepage_Desktop.png</t>
+    <t>Home Page_Desktop.png</t>
   </si>
   <si>
     <t>https://miro-sa.com/eng/</t>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
